--- a/Schedule Template/9-team-template.xlsx
+++ b/Schedule Template/9-team-template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahngu\Desktop\Game Data\Schedule Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Desktop\NCAA Files\League\Modern-ISO-120-v4\Schedule Template\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57757BB-C1E1-406D-8101-706BDD3A5D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E642717-A108-4714-B50E-73932A128211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21990" yWindow="3000" windowWidth="28395" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14010" yWindow="2535" windowWidth="24615" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00003 SCHEDULES - SACC" sheetId="1" r:id="rId1"/>
     <sheet name="Lookup" sheetId="2" r:id="rId2"/>
     <sheet name="All teams" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="212">
   <si>
     <t>GTOD</t>
   </si>
@@ -58,12 +58,6 @@
     <t>TDNA</t>
   </si>
   <si>
-    <t>CGID</t>
-  </si>
-  <si>
-    <t>DGID</t>
-  </si>
-  <si>
     <t>TGID</t>
   </si>
   <si>
@@ -425,6 +419,255 @@
   </si>
   <si>
     <t>Air Force</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M</t>
+  </si>
+  <si>
+    <t>Alabama State</t>
+  </si>
+  <si>
+    <t>Alcorn State</t>
+  </si>
+  <si>
+    <t>Ark - Pine Bluff</t>
+  </si>
+  <si>
+    <t>Bethune-Cookman</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>Dartmouth</t>
+  </si>
+  <si>
+    <t>Delaware State</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M</t>
+  </si>
+  <si>
+    <t>Grambling State</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Jackson State</t>
+  </si>
+  <si>
+    <t>Miss Valley State</t>
+  </si>
+  <si>
+    <t>Morgan State</t>
+  </si>
+  <si>
+    <t>Norfolk State</t>
+  </si>
+  <si>
+    <t>NC A&amp;T State</t>
+  </si>
+  <si>
+    <t>Penn</t>
+  </si>
+  <si>
+    <t>Prairie View A&amp;M</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>S Carolina State</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Coastal Carolina</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>William and Mary</t>
+  </si>
+  <si>
+    <t>The Citadel</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Georgia Southern</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Western Carolina</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>E Washington</t>
+  </si>
+  <si>
+    <t>Idaho State</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Montana State</t>
+  </si>
+  <si>
+    <t>Northern Arizona</t>
+  </si>
+  <si>
+    <t>Portland State</t>
+  </si>
+  <si>
+    <t>Sacramento State</t>
+  </si>
+  <si>
+    <t>Weber State</t>
+  </si>
+  <si>
+    <t>Illinois State</t>
+  </si>
+  <si>
+    <t>Indiana State</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Western Illinois</t>
+  </si>
+  <si>
+    <t>Youngstown State</t>
+  </si>
+  <si>
+    <t>McNeese State</t>
+  </si>
+  <si>
+    <t>Northwestern St</t>
+  </si>
+  <si>
+    <t>Nicholls State</t>
+  </si>
+  <si>
+    <t>Stephen F. Austin</t>
+  </si>
+  <si>
+    <t>Sam Houston St</t>
+  </si>
+  <si>
+    <t>Eastern Illinois</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky</t>
+  </si>
+  <si>
+    <t>SE Missouri St</t>
+  </si>
+  <si>
+    <t>Jacksonville State</t>
+  </si>
+  <si>
+    <t>Tennessee Tech</t>
+  </si>
+  <si>
+    <t>Tennessee State</t>
+  </si>
+  <si>
+    <t>Samford</t>
+  </si>
+  <si>
+    <t>Tennessee-Martin</t>
+  </si>
+  <si>
+    <t>Towson</t>
+  </si>
+  <si>
+    <t>Southeastern</t>
   </si>
 </sst>
 </file>
@@ -1301,9 +1544,9 @@
       <selection activeCell="J1" sqref="J1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>750</v>
       </c>
@@ -1373,12 +1616,12 @@
         <v>750</v>
       </c>
       <c r="K2">
-        <f>VLOOKUP(B2,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(B2,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="L2">
-        <f>VLOOKUP(C2,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C2,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1393,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>930</v>
       </c>
@@ -1419,12 +1662,12 @@
         <v>930</v>
       </c>
       <c r="K3">
-        <f>VLOOKUP(B3,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(B3,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="L3">
+        <f>VLOOKUP(C3,Lookup!B:C,2,FALSE)</f>
         <v>25</v>
-      </c>
-      <c r="L3">
-        <f>VLOOKUP(C3,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1439,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1200</v>
       </c>
@@ -1465,12 +1708,12 @@
         <v>1200</v>
       </c>
       <c r="K4">
-        <f>VLOOKUP(B4,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(B4,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="L4">
-        <f>VLOOKUP(C4,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C4,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1485,7 +1728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>750</v>
       </c>
@@ -1511,12 +1754,12 @@
         <v>750</v>
       </c>
       <c r="K5">
-        <f>VLOOKUP(B5,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(B5,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="L5">
-        <f>VLOOKUP(C5,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(C5,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1531,7 +1774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1080</v>
       </c>
@@ -1557,12 +1800,12 @@
         <v>1080</v>
       </c>
       <c r="K6">
-        <f>VLOOKUP(B6,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(B6,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="L6">
-        <f>VLOOKUP(C6,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(C6,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1577,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1080</v>
       </c>
@@ -1603,12 +1846,12 @@
         <v>1080</v>
       </c>
       <c r="K7">
-        <f>VLOOKUP(B7,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(B7,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L7">
-        <f>VLOOKUP(C7,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(C7,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1623,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>750</v>
       </c>
@@ -1649,12 +1892,12 @@
         <v>750</v>
       </c>
       <c r="K8">
-        <f>VLOOKUP(B8,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(B8,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="L8">
-        <f>VLOOKUP(C8,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(C8,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1669,7 +1912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1200</v>
       </c>
@@ -1695,11 +1938,11 @@
         <v>1200</v>
       </c>
       <c r="K9">
-        <f>VLOOKUP(B9,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(B9,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="L9">
-        <f>VLOOKUP(C9,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(C9,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="M9">
@@ -1715,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1080</v>
       </c>
@@ -1741,12 +1984,12 @@
         <v>1080</v>
       </c>
       <c r="K10">
-        <f>VLOOKUP(B10,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(B10,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L10">
-        <f>VLOOKUP(C10,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(C10,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1761,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>930</v>
       </c>
@@ -1787,12 +2030,12 @@
         <v>930</v>
       </c>
       <c r="K11">
-        <f>VLOOKUP(B11,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(B11,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="L11">
-        <f>VLOOKUP(C11,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(C11,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1807,7 +2050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1080</v>
       </c>
@@ -1833,12 +2076,12 @@
         <v>1080</v>
       </c>
       <c r="K12">
-        <f>VLOOKUP(B12,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(B12,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L12">
-        <f>VLOOKUP(C12,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(C12,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1853,7 +2096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -1879,12 +2122,12 @@
         <v>1200</v>
       </c>
       <c r="K13">
-        <f>VLOOKUP(B13,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(B13,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="L13">
-        <f>VLOOKUP(C13,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(C13,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1899,7 +2142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>750</v>
       </c>
@@ -1925,12 +2168,12 @@
         <v>750</v>
       </c>
       <c r="K14">
-        <f>VLOOKUP(B14,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(B14,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="L14">
-        <f>VLOOKUP(C14,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(C14,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1945,7 +2188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>930</v>
       </c>
@@ -1971,12 +2214,12 @@
         <v>930</v>
       </c>
       <c r="K15">
-        <f>VLOOKUP(B15,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(B15,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="L15">
-        <f>VLOOKUP(C15,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(C15,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1991,7 +2234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1080</v>
       </c>
@@ -2017,12 +2260,12 @@
         <v>1080</v>
       </c>
       <c r="K16">
-        <f>VLOOKUP(B16,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(B16,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="L16">
-        <f>VLOOKUP(C16,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(C16,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2037,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1080</v>
       </c>
@@ -2063,12 +2306,12 @@
         <v>1080</v>
       </c>
       <c r="K17">
-        <f>VLOOKUP(B17,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(B17,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="L17">
-        <f>VLOOKUP(C17,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(C17,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2083,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1200</v>
       </c>
@@ -2109,11 +2352,11 @@
         <v>1200</v>
       </c>
       <c r="K18">
-        <f>VLOOKUP(B18,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(B18,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L18">
-        <f>VLOOKUP(C18,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(C18,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="M18">
@@ -2129,7 +2372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>930</v>
       </c>
@@ -2155,12 +2398,12 @@
         <v>930</v>
       </c>
       <c r="K19">
-        <f>VLOOKUP(B19,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(B19,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="L19">
-        <f>VLOOKUP(C19,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(C19,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2175,7 +2418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1200</v>
       </c>
@@ -2201,12 +2444,12 @@
         <v>1200</v>
       </c>
       <c r="K20">
-        <f>VLOOKUP(B20,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(B20,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L20">
-        <f>VLOOKUP(C20,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C20,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2221,7 +2464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>930</v>
       </c>
@@ -2247,12 +2490,12 @@
         <v>930</v>
       </c>
       <c r="K21">
-        <f>VLOOKUP(B21,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(B21,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="L21">
-        <f>VLOOKUP(C21,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(C21,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2267,7 +2510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1080</v>
       </c>
@@ -2293,12 +2536,12 @@
         <v>1080</v>
       </c>
       <c r="K22">
-        <f>VLOOKUP(B22,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(B22,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="L22">
-        <f>VLOOKUP(C22,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(C22,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2313,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>930</v>
       </c>
@@ -2339,12 +2582,12 @@
         <v>930</v>
       </c>
       <c r="K23">
-        <f>VLOOKUP(B23,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(B23,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="L23">
-        <f>VLOOKUP(C23,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(C23,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2359,7 +2602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1080</v>
       </c>
@@ -2385,12 +2628,12 @@
         <v>1080</v>
       </c>
       <c r="K24">
-        <f>VLOOKUP(B24,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(B24,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L24">
-        <f>VLOOKUP(C24,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(C24,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2405,7 +2648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1200</v>
       </c>
@@ -2431,12 +2674,12 @@
         <v>1200</v>
       </c>
       <c r="K25">
-        <f>VLOOKUP(B25,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(B25,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L25">
-        <f>VLOOKUP(C25,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(C25,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2451,7 +2694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1200</v>
       </c>
@@ -2477,12 +2720,12 @@
         <v>1200</v>
       </c>
       <c r="K26">
-        <f>VLOOKUP(B26,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(B26,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="L26">
-        <f>VLOOKUP(C26,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(C26,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2497,7 +2740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1080</v>
       </c>
@@ -2523,12 +2766,12 @@
         <v>1080</v>
       </c>
       <c r="K27">
-        <f>VLOOKUP(B27,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(B27,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="L27">
-        <f>VLOOKUP(C27,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(C27,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2543,7 +2786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1200</v>
       </c>
@@ -2569,12 +2812,12 @@
         <v>1200</v>
       </c>
       <c r="K28">
-        <f>VLOOKUP(B28,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(B28,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="L28">
-        <f>VLOOKUP(C28,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(C28,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2589,7 +2832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1080</v>
       </c>
@@ -2615,12 +2858,12 @@
         <v>1080</v>
       </c>
       <c r="K29">
-        <f>VLOOKUP(B29,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(B29,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L29">
-        <f>VLOOKUP(C29,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(C29,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2635,7 +2878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>930</v>
       </c>
@@ -2661,12 +2904,12 @@
         <v>930</v>
       </c>
       <c r="K30">
-        <f>VLOOKUP(B30,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(B30,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="L30">
-        <f>VLOOKUP(C30,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(C30,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2681,7 +2924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1200</v>
       </c>
@@ -2707,12 +2950,12 @@
         <v>1200</v>
       </c>
       <c r="K31">
-        <f>VLOOKUP(B31,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(B31,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="L31">
-        <f>VLOOKUP(C31,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C31,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2727,7 +2970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>930</v>
       </c>
@@ -2753,11 +2996,11 @@
         <v>930</v>
       </c>
       <c r="K32">
-        <f>VLOOKUP(B32,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(B32,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L32">
-        <f>VLOOKUP(C32,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(C32,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="M32">
@@ -2773,7 +3016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>750</v>
       </c>
@@ -2799,12 +3042,12 @@
         <v>750</v>
       </c>
       <c r="K33">
-        <f>VLOOKUP(B33,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(B33,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L33">
-        <f>VLOOKUP(C33,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(C33,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2819,7 +3062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1080</v>
       </c>
@@ -2845,12 +3088,12 @@
         <v>1080</v>
       </c>
       <c r="K34">
-        <f>VLOOKUP(B34,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(B34,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="L34">
-        <f>VLOOKUP(C34,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(C34,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2865,7 +3108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1200</v>
       </c>
@@ -2891,12 +3134,12 @@
         <v>1200</v>
       </c>
       <c r="K35">
-        <f>VLOOKUP(B35,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(B35,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="L35">
-        <f>VLOOKUP(C35,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(C35,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2911,7 +3154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>930</v>
       </c>
@@ -2937,11 +3180,11 @@
         <v>930</v>
       </c>
       <c r="K36">
-        <f>VLOOKUP(B36,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(B36,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L36">
-        <f>VLOOKUP(C36,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(C36,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="M36">
@@ -2957,7 +3200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>930</v>
       </c>
@@ -2983,12 +3226,12 @@
         <v>930</v>
       </c>
       <c r="K37">
-        <f>VLOOKUP(B37,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(B37,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="L37">
-        <f>VLOOKUP(C37,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(C37,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -3003,7 +3246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1080</v>
       </c>
@@ -3029,11 +3272,11 @@
         <v>1080</v>
       </c>
       <c r="K38">
-        <f>VLOOKUP(B38,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(B38,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="L38">
-        <f>VLOOKUP(C38,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(C38,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="M38">
@@ -3049,7 +3292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>930</v>
       </c>
@@ -3075,12 +3318,12 @@
         <v>930</v>
       </c>
       <c r="K39">
-        <f>VLOOKUP(B39,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(B39,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L39">
-        <f>VLOOKUP(C39,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(C39,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3095,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1200</v>
       </c>
@@ -3121,12 +3364,12 @@
         <v>1200</v>
       </c>
       <c r="K40">
-        <f>VLOOKUP(B40,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(B40,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="L40">
-        <f>VLOOKUP(C40,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(C40,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3141,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>750</v>
       </c>
@@ -3167,12 +3410,12 @@
         <v>750</v>
       </c>
       <c r="K41">
-        <f>VLOOKUP(B41,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(B41,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L41">
-        <f>VLOOKUP(C41,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(C41,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3187,7 +3430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1080</v>
       </c>
@@ -3213,12 +3456,12 @@
         <v>1080</v>
       </c>
       <c r="K42">
-        <f>VLOOKUP(B42,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(B42,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L42">
-        <f>VLOOKUP(C42,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(C42,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3233,7 +3476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1080</v>
       </c>
@@ -3259,12 +3502,12 @@
         <v>1080</v>
       </c>
       <c r="K43">
-        <f>VLOOKUP(B43,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(B43,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="L43">
-        <f>VLOOKUP(C43,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(C43,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3279,7 +3522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>750</v>
       </c>
@@ -3305,12 +3548,12 @@
         <v>750</v>
       </c>
       <c r="K44">
-        <f>VLOOKUP(B44,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(B44,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L44">
-        <f>VLOOKUP(C44,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(C44,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3325,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1200</v>
       </c>
@@ -3351,12 +3594,12 @@
         <v>1200</v>
       </c>
       <c r="K45">
-        <f>VLOOKUP(B45,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(B45,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="L45">
-        <f>VLOOKUP(C45,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(C45,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3371,7 +3614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1080</v>
       </c>
@@ -3397,12 +3640,12 @@
         <v>1080</v>
       </c>
       <c r="K46">
-        <f>VLOOKUP(B46,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(B46,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="L46">
-        <f>VLOOKUP(C46,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(C46,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3417,7 +3660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>930</v>
       </c>
@@ -3443,12 +3686,12 @@
         <v>930</v>
       </c>
       <c r="K47">
-        <f>VLOOKUP(B47,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(B47,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L47">
-        <f>VLOOKUP(C47,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(C47,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3463,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1200</v>
       </c>
@@ -3489,12 +3732,12 @@
         <v>1200</v>
       </c>
       <c r="K48">
-        <f>VLOOKUP(B48,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(B48,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="L48">
-        <f>VLOOKUP(C48,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(C48,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3509,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1080</v>
       </c>
@@ -3535,12 +3778,12 @@
         <v>1080</v>
       </c>
       <c r="K49">
-        <f>VLOOKUP(B49,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(B49,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L49">
-        <f>VLOOKUP(C49,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C49,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3555,7 +3798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>750</v>
       </c>
@@ -3581,12 +3824,12 @@
         <v>750</v>
       </c>
       <c r="K50">
-        <f>VLOOKUP(B50,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(B50,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="L50">
-        <f>VLOOKUP(C50,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(C50,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3601,7 +3844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>930</v>
       </c>
@@ -3627,11 +3870,11 @@
         <v>930</v>
       </c>
       <c r="K51">
-        <f>VLOOKUP(B51,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(B51,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="L51">
-        <f>VLOOKUP(C51,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(C51,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="M51">
@@ -3647,7 +3890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1080</v>
       </c>
@@ -3673,12 +3916,12 @@
         <v>1080</v>
       </c>
       <c r="K52">
-        <f>VLOOKUP(B52,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(B52,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L52">
-        <f>VLOOKUP(C52,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C52,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3693,7 +3936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1080</v>
       </c>
@@ -3719,12 +3962,12 @@
         <v>1080</v>
       </c>
       <c r="K53">
-        <f>VLOOKUP(B53,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(B53,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="L53">
-        <f>VLOOKUP(C53,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(C53,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -3739,7 +3982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1200</v>
       </c>
@@ -3765,12 +4008,12 @@
         <v>1200</v>
       </c>
       <c r="K54">
-        <f>VLOOKUP(B54,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(B54,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="L54">
-        <f>VLOOKUP(C54,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(C54,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3785,7 +4028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>930</v>
       </c>
@@ -3811,12 +4054,12 @@
         <v>930</v>
       </c>
       <c r="K55">
-        <f>VLOOKUP(B55,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(B55,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="L55">
-        <f>VLOOKUP(C55,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(C55,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3831,7 +4074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1200</v>
       </c>
@@ -3857,12 +4100,12 @@
         <v>1200</v>
       </c>
       <c r="K56">
-        <f>VLOOKUP(B56,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(B56,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="L56">
-        <f>VLOOKUP(C56,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(C56,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3877,7 +4120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>930</v>
       </c>
@@ -3903,12 +4146,12 @@
         <v>930</v>
       </c>
       <c r="K57">
-        <f>VLOOKUP(B57,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(B57,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="L57">
-        <f>VLOOKUP(C57,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(C57,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -3923,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1080</v>
       </c>
@@ -3949,12 +4192,12 @@
         <v>1080</v>
       </c>
       <c r="K58">
-        <f>VLOOKUP(B58,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(B58,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L58">
-        <f>VLOOKUP(C58,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(C58,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -3969,7 +4212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>930</v>
       </c>
@@ -3995,12 +4238,12 @@
         <v>930</v>
       </c>
       <c r="K59">
-        <f>VLOOKUP(B59,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(B59,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="L59">
-        <f>VLOOKUP(C59,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C59,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4015,7 +4258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1080</v>
       </c>
@@ -4041,12 +4284,12 @@
         <v>1080</v>
       </c>
       <c r="K60">
-        <f>VLOOKUP(B60,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(B60,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L60">
-        <f>VLOOKUP(C60,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(C60,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4061,7 +4304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1200</v>
       </c>
@@ -4087,12 +4330,12 @@
         <v>1200</v>
       </c>
       <c r="K61">
-        <f>VLOOKUP(B61,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(B61,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="L61">
-        <f>VLOOKUP(C61,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(C61,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4107,7 +4350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1080</v>
       </c>
@@ -4133,11 +4376,11 @@
         <v>1080</v>
       </c>
       <c r="K62">
-        <f>VLOOKUP(B62,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(B62,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="L62">
-        <f>VLOOKUP(C62,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(C62,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="M62">
@@ -4153,7 +4396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1080</v>
       </c>
@@ -4179,12 +4422,12 @@
         <v>1080</v>
       </c>
       <c r="K63">
-        <f>VLOOKUP(B63,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(B63,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L63">
-        <f>VLOOKUP(C63,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(C63,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4199,7 +4442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1200</v>
       </c>
@@ -4225,12 +4468,12 @@
         <v>1200</v>
       </c>
       <c r="K64">
-        <f>VLOOKUP(B64,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(B64,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="L64">
-        <f>VLOOKUP(C64,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(C64,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4245,7 +4488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1080</v>
       </c>
@@ -4271,12 +4514,12 @@
         <v>1080</v>
       </c>
       <c r="K65">
-        <f>VLOOKUP(B65,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(B65,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L65">
-        <f>VLOOKUP(C65,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(C65,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4291,7 +4534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>930</v>
       </c>
@@ -4317,11 +4560,11 @@
         <v>930</v>
       </c>
       <c r="K66">
-        <f>VLOOKUP(B66,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(B66,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="L66">
-        <f>VLOOKUP(C66,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(C66,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="M66">
@@ -4337,7 +4580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1200</v>
       </c>
@@ -4363,12 +4606,12 @@
         <v>1200</v>
       </c>
       <c r="K67">
-        <f>VLOOKUP(B67,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(B67,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="L67">
-        <f>VLOOKUP(C67,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(C67,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4383,7 +4626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>930</v>
       </c>
@@ -4409,12 +4652,12 @@
         <v>930</v>
       </c>
       <c r="K68">
-        <f>VLOOKUP(B68,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(B68,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="L68">
-        <f>VLOOKUP(C68,Lookup!$D:$H,5,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(C68,Lookup!B:C,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -4429,7 +4672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>750</v>
       </c>
@@ -4455,12 +4698,12 @@
         <v>750</v>
       </c>
       <c r="K69">
-        <f>VLOOKUP(B69,Lookup!$D:$H,5,FALSE)</f>
-        <v>230</v>
+        <f>VLOOKUP(B69,Lookup!B:C,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="L69">
-        <f>VLOOKUP(C69,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(C69,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4475,7 +4718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1080</v>
       </c>
@@ -4501,12 +4744,12 @@
         <v>1080</v>
       </c>
       <c r="K70">
-        <f>VLOOKUP(B70,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(B70,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="L70">
-        <f>VLOOKUP(C70,Lookup!$D:$H,5,FALSE)</f>
-        <v>46</v>
+        <f>VLOOKUP(C70,Lookup!B:C,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -4521,7 +4764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1200</v>
       </c>
@@ -4547,12 +4790,12 @@
         <v>1200</v>
       </c>
       <c r="K71">
-        <f>VLOOKUP(B71,Lookup!$D:$H,5,FALSE)</f>
-        <v>66</v>
+        <f>VLOOKUP(B71,Lookup!B:C,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L71">
-        <f>VLOOKUP(C71,Lookup!$D:$H,5,FALSE)</f>
-        <v>229</v>
+        <f>VLOOKUP(C71,Lookup!B:C,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -4567,7 +4810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1080</v>
       </c>
@@ -4593,12 +4836,12 @@
         <v>1080</v>
       </c>
       <c r="K72">
-        <f>VLOOKUP(B72,Lookup!$D:$H,5,FALSE)</f>
+        <f>VLOOKUP(B72,Lookup!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
       <c r="L72">
-        <f>VLOOKUP(C72,Lookup!$D:$H,5,FALSE)</f>
-        <v>188</v>
+        <f>VLOOKUP(C72,Lookup!B:C,2,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -4613,7 +4856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>930</v>
       </c>
@@ -4639,12 +4882,12 @@
         <v>930</v>
       </c>
       <c r="K73">
-        <f>VLOOKUP(B73,Lookup!$D:$H,5,FALSE)</f>
-        <v>211</v>
+        <f>VLOOKUP(B73,Lookup!B:C,2,FALSE)</f>
+        <v>183</v>
       </c>
       <c r="L73">
-        <f>VLOOKUP(C73,Lookup!$D:$H,5,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C73,Lookup!B:C,2,FALSE)</f>
+        <v>48</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4666,2004 +4909,2424 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H10"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <f>VLOOKUP(A2,'All teams'!B:C,2,FALSE)</f>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <f>VLOOKUP(A2,'All teams'!A:D,4,FALSE)</f>
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
+        <f>VLOOKUP(D2,'All teams'!B:C,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <f>VLOOKUP(A3,'All teams'!B:C,2,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <f>VLOOKUP(A3,'All teams'!A:D,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(D3,'All teams'!B:C,2,FALSE)</f>
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <f>VLOOKUP(A4,'All teams'!B:C,2,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <f>VLOOKUP(A4,'All teams'!A:D,4,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(D4,'All teams'!B:C,2,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <f>VLOOKUP(A5,'All teams'!B:C,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(D5,'All teams'!B:C,2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <f>VLOOKUP(A6,'All teams'!B:C,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(D6,'All teams'!B:C,2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7">
+        <f>VLOOKUP(A7,'All teams'!B:C,2,FALSE)</f>
         <v>81</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <f>VLOOKUP(A5,'All teams'!A:D,4,FALSE)</f>
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <f>VLOOKUP(A6,'All teams'!A:D,4,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
       <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f>VLOOKUP(A7,'All teams'!A:D,4,FALSE)</f>
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
+        <f>VLOOKUP(D7,'All teams'!B:C,2,FALSE)</f>
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8">
+        <f>VLOOKUP(A8,'All teams'!B:C,2,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(D8,'All teams'!B:C,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <f>VLOOKUP(A9,'All teams'!B:C,2,FALSE)</f>
+        <v>103</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(D9,'All teams'!B:C,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <f>VLOOKUP(A8,'All teams'!A:D,4,FALSE)</f>
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <f>VLOOKUP(A9,'All teams'!A:D,4,FALSE)</f>
-        <v>103</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <f>VLOOKUP(A10,'All teams'!B:C,2,FALSE)</f>
+        <v>115</v>
       </c>
       <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <f>VLOOKUP(A10,'All teams'!A:D,4,FALSE)</f>
-        <v>115</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>211</v>
+        <f>VLOOKUP(D10,'All teams'!B:C,2,FALSE)</f>
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B10">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D44"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>106</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
       </c>
       <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
       </c>
       <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>56</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
+      <c r="C110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-      <c r="D23">
+      <c r="C114">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>115</v>
+      </c>
+      <c r="C144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>98</v>
+      </c>
+      <c r="C145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>160</v>
+      </c>
+      <c r="B146" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>161</v>
+      </c>
+      <c r="B147" t="s">
+        <v>160</v>
+      </c>
+      <c r="C147">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>162</v>
+      </c>
+      <c r="B148" t="s">
+        <v>161</v>
+      </c>
+      <c r="C148">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>163</v>
+      </c>
+      <c r="B149" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>164</v>
+      </c>
+      <c r="B150" t="s">
+        <v>163</v>
+      </c>
+      <c r="C150">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>177</v>
+      </c>
+      <c r="B151" t="s">
+        <v>164</v>
+      </c>
+      <c r="C151">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>178</v>
+      </c>
+      <c r="B152" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>179</v>
+      </c>
+      <c r="B153" t="s">
+        <v>166</v>
+      </c>
+      <c r="C153">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>180</v>
+      </c>
+      <c r="B154" t="s">
+        <v>167</v>
+      </c>
+      <c r="C154">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>181</v>
+      </c>
+      <c r="B155" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>182</v>
+      </c>
+      <c r="B156" t="s">
+        <v>168</v>
+      </c>
+      <c r="C156">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>183</v>
+      </c>
+      <c r="B157" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>184</v>
+      </c>
+      <c r="B158" t="s">
+        <v>170</v>
+      </c>
+      <c r="C158">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>185</v>
+      </c>
+      <c r="B159" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>186</v>
+      </c>
+      <c r="B160" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>187</v>
+      </c>
+      <c r="B161" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>188</v>
+      </c>
+      <c r="B162" t="s">
         <v>55</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>15</v>
-      </c>
-      <c r="D36">
+      <c r="C162">
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>189</v>
+      </c>
+      <c r="B163" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>191</v>
+      </c>
+      <c r="B164" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>192</v>
+      </c>
+      <c r="B165" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>193</v>
+      </c>
+      <c r="B166" t="s">
+        <v>177</v>
+      </c>
+      <c r="C166">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>194</v>
+      </c>
+      <c r="B167" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>195</v>
+      </c>
+      <c r="B168" t="s">
+        <v>179</v>
+      </c>
+      <c r="C168">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>196</v>
+      </c>
+      <c r="B169" t="s">
+        <v>180</v>
+      </c>
+      <c r="C169">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>197</v>
+      </c>
+      <c r="B170" t="s">
+        <v>181</v>
+      </c>
+      <c r="C170">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>198</v>
+      </c>
+      <c r="B171" t="s">
+        <v>182</v>
+      </c>
+      <c r="C171">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>199</v>
+      </c>
+      <c r="B172" t="s">
+        <v>183</v>
+      </c>
+      <c r="C172">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>200</v>
+      </c>
+      <c r="B173" t="s">
+        <v>184</v>
+      </c>
+      <c r="C173">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>201</v>
+      </c>
+      <c r="B174" t="s">
+        <v>185</v>
+      </c>
+      <c r="C174">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>202</v>
+      </c>
+      <c r="B175" t="s">
+        <v>186</v>
+      </c>
+      <c r="C175">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>203</v>
+      </c>
+      <c r="B176" t="s">
+        <v>187</v>
+      </c>
+      <c r="C176">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>204</v>
+      </c>
+      <c r="B177" t="s">
+        <v>188</v>
+      </c>
+      <c r="C177">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>205</v>
+      </c>
+      <c r="B178" t="s">
+        <v>189</v>
+      </c>
+      <c r="C178">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>206</v>
+      </c>
+      <c r="B179" t="s">
+        <v>190</v>
+      </c>
+      <c r="C179">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>207</v>
+      </c>
+      <c r="B180" t="s">
+        <v>191</v>
+      </c>
+      <c r="C180">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>208</v>
+      </c>
+      <c r="B181" t="s">
+        <v>192</v>
+      </c>
+      <c r="C181">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>209</v>
+      </c>
+      <c r="B182" t="s">
+        <v>193</v>
+      </c>
+      <c r="C182">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>210</v>
+      </c>
+      <c r="B183" t="s">
+        <v>194</v>
+      </c>
+      <c r="C183">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>211</v>
+      </c>
+      <c r="B184" t="s">
+        <v>63</v>
+      </c>
+      <c r="C184">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>212</v>
+      </c>
+      <c r="B185" t="s">
+        <v>195</v>
+      </c>
+      <c r="C185">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>213</v>
+      </c>
+      <c r="B186" t="s">
+        <v>196</v>
+      </c>
+      <c r="C186">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>214</v>
+      </c>
+      <c r="B187" t="s">
+        <v>197</v>
+      </c>
+      <c r="C187">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>215</v>
+      </c>
+      <c r="B188" t="s">
+        <v>198</v>
+      </c>
+      <c r="C188">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>216</v>
+      </c>
+      <c r="B189" t="s">
+        <v>199</v>
+      </c>
+      <c r="C189">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>217</v>
+      </c>
+      <c r="B190" t="s">
+        <v>200</v>
+      </c>
+      <c r="C190">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>218</v>
+      </c>
+      <c r="B191" t="s">
+        <v>124</v>
+      </c>
+      <c r="C191">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>219</v>
+      </c>
+      <c r="B192" t="s">
+        <v>201</v>
+      </c>
+      <c r="C192">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>220</v>
+      </c>
+      <c r="B193" t="s">
+        <v>202</v>
+      </c>
+      <c r="C193">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>221</v>
+      </c>
+      <c r="B194" t="s">
+        <v>203</v>
+      </c>
+      <c r="C194">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>222</v>
+      </c>
+      <c r="B195" t="s">
+        <v>204</v>
+      </c>
+      <c r="C195">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>223</v>
+      </c>
+      <c r="B196" t="s">
+        <v>205</v>
+      </c>
+      <c r="C196">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>224</v>
+      </c>
+      <c r="B197" t="s">
+        <v>206</v>
+      </c>
+      <c r="C197">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>225</v>
+      </c>
+      <c r="B198" t="s">
+        <v>207</v>
+      </c>
+      <c r="C198">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>226</v>
+      </c>
+      <c r="B199" t="s">
+        <v>208</v>
+      </c>
+      <c r="C199">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>227</v>
+      </c>
+      <c r="B200" t="s">
+        <v>209</v>
+      </c>
+      <c r="C200">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>228</v>
+      </c>
+      <c r="B201" t="s">
+        <v>210</v>
+      </c>
+      <c r="C201">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>229</v>
+      </c>
+      <c r="B202" t="s">
+        <v>59</v>
+      </c>
+      <c r="C202">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>230</v>
+      </c>
+      <c r="B203" t="s">
         <v>58</v>
       </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>15</v>
-      </c>
-      <c r="D39">
+      <c r="C203">
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>15</v>
-      </c>
-      <c r="D40">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>15</v>
-      </c>
-      <c r="D41">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>15</v>
-      </c>
-      <c r="D44">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>231</v>
+      </c>
+      <c r="B204" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>9</v>
-      </c>
-      <c r="D53">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>9</v>
-      </c>
-      <c r="D54">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>9</v>
-      </c>
-      <c r="D55">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>9</v>
-      </c>
-      <c r="D56">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>15</v>
-      </c>
-      <c r="D57">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60">
-        <v>7</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61">
-        <v>7</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62">
-        <v>7</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63">
-        <v>7</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64">
-        <v>7</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65">
-        <v>7</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66">
-        <v>7</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67">
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68">
-        <v>7</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69">
-        <v>7</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70">
-        <v>9</v>
-      </c>
-      <c r="C70">
-        <v>15</v>
-      </c>
-      <c r="D70">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71">
-        <v>9</v>
-      </c>
-      <c r="C71">
-        <v>15</v>
-      </c>
-      <c r="D71">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72">
-        <v>9</v>
-      </c>
-      <c r="C72">
-        <v>15</v>
-      </c>
-      <c r="D72">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73">
-        <v>9</v>
-      </c>
-      <c r="C73">
-        <v>15</v>
-      </c>
-      <c r="D73">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74">
-        <v>15</v>
-      </c>
-      <c r="D74">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75">
-        <v>9</v>
-      </c>
-      <c r="C75">
-        <v>15</v>
-      </c>
-      <c r="D75">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76">
-        <v>9</v>
-      </c>
-      <c r="C76">
-        <v>15</v>
-      </c>
-      <c r="D76">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>15</v>
-      </c>
-      <c r="D77">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78">
-        <v>9</v>
-      </c>
-      <c r="C78">
-        <v>15</v>
-      </c>
-      <c r="D78">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>15</v>
-      </c>
-      <c r="D79">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80">
-        <v>10</v>
-      </c>
-      <c r="C80">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81">
-        <v>10</v>
-      </c>
-      <c r="C81">
-        <v>10</v>
-      </c>
-      <c r="D81">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82">
-        <v>10</v>
-      </c>
-      <c r="C82">
-        <v>10</v>
-      </c>
-      <c r="D82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-      <c r="C83">
-        <v>10</v>
-      </c>
-      <c r="D83">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84">
-        <v>10</v>
-      </c>
-      <c r="C84">
-        <v>10</v>
-      </c>
-      <c r="D84">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85">
-        <v>10</v>
-      </c>
-      <c r="C85">
-        <v>10</v>
-      </c>
-      <c r="D85">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-      <c r="C86">
-        <v>11</v>
-      </c>
-      <c r="D86">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-      <c r="C87">
-        <v>11</v>
-      </c>
-      <c r="D87">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-      <c r="C88">
-        <v>11</v>
-      </c>
-      <c r="D88">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89">
-        <v>10</v>
-      </c>
-      <c r="C89">
-        <v>11</v>
-      </c>
-      <c r="D89">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90">
-        <v>10</v>
-      </c>
-      <c r="C90">
-        <v>11</v>
-      </c>
-      <c r="D90">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91">
-        <v>10</v>
-      </c>
-      <c r="C91">
-        <v>11</v>
-      </c>
-      <c r="D91">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92">
-        <v>11</v>
-      </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-      <c r="D92">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93">
-        <v>11</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94">
-        <v>11</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="D94">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95">
-        <v>11</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-      <c r="D95">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96">
-        <v>11</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="D96">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>106</v>
-      </c>
-      <c r="B97">
-        <v>11</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
-      </c>
-      <c r="D97">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>107</v>
-      </c>
-      <c r="B98">
-        <v>11</v>
-      </c>
-      <c r="C98">
-        <v>5</v>
-      </c>
-      <c r="D98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>108</v>
-      </c>
-      <c r="B99">
-        <v>11</v>
-      </c>
-      <c r="C99">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>109</v>
-      </c>
-      <c r="B100">
-        <v>11</v>
-      </c>
-      <c r="C100">
-        <v>5</v>
-      </c>
-      <c r="D100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101">
-        <v>11</v>
-      </c>
-      <c r="C101">
-        <v>5</v>
-      </c>
-      <c r="D101">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102">
-        <v>11</v>
-      </c>
-      <c r="C102">
-        <v>5</v>
-      </c>
-      <c r="D102">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103">
-        <v>11</v>
-      </c>
-      <c r="C103">
-        <v>5</v>
-      </c>
-      <c r="D103">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104">
-        <v>13</v>
-      </c>
-      <c r="C104">
-        <v>15</v>
-      </c>
-      <c r="D104">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>114</v>
-      </c>
-      <c r="B105">
-        <v>13</v>
-      </c>
-      <c r="C105">
-        <v>15</v>
-      </c>
-      <c r="D105">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>115</v>
-      </c>
-      <c r="B106">
-        <v>13</v>
-      </c>
-      <c r="C106">
-        <v>15</v>
-      </c>
-      <c r="D106">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>116</v>
-      </c>
-      <c r="B107">
-        <v>13</v>
-      </c>
-      <c r="C107">
-        <v>15</v>
-      </c>
-      <c r="D107">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>117</v>
-      </c>
-      <c r="B108">
-        <v>13</v>
-      </c>
-      <c r="C108">
-        <v>15</v>
-      </c>
-      <c r="D108">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>118</v>
-      </c>
-      <c r="B109">
-        <v>13</v>
-      </c>
-      <c r="C109">
-        <v>15</v>
-      </c>
-      <c r="D109">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>119</v>
-      </c>
-      <c r="B110">
-        <v>13</v>
-      </c>
-      <c r="C110">
-        <v>15</v>
-      </c>
-      <c r="D110">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>120</v>
-      </c>
-      <c r="B111">
-        <v>13</v>
-      </c>
-      <c r="C111">
-        <v>15</v>
-      </c>
-      <c r="D111">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112">
-        <v>14</v>
-      </c>
-      <c r="C112">
-        <v>15</v>
-      </c>
-      <c r="D112">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>122</v>
-      </c>
-      <c r="B113">
-        <v>14</v>
-      </c>
-      <c r="C113">
-        <v>15</v>
-      </c>
-      <c r="D113">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114">
-        <v>14</v>
-      </c>
-      <c r="C114">
-        <v>15</v>
-      </c>
-      <c r="D114">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>124</v>
-      </c>
-      <c r="B115">
-        <v>14</v>
-      </c>
-      <c r="C115">
-        <v>15</v>
-      </c>
-      <c r="D115">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116">
-        <v>14</v>
-      </c>
-      <c r="C116">
-        <v>15</v>
-      </c>
-      <c r="D116">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117">
-        <v>14</v>
-      </c>
-      <c r="C117">
-        <v>15</v>
-      </c>
-      <c r="D117">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>127</v>
-      </c>
-      <c r="B118">
-        <v>14</v>
-      </c>
-      <c r="C118">
-        <v>15</v>
-      </c>
-      <c r="D118">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>128</v>
-      </c>
-      <c r="B119">
-        <v>14</v>
-      </c>
-      <c r="C119">
-        <v>15</v>
-      </c>
-      <c r="D119">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>129</v>
-      </c>
-      <c r="B120">
-        <v>14</v>
-      </c>
-      <c r="C120">
-        <v>15</v>
-      </c>
-      <c r="D120">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>130</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
+      <c r="C204">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>